--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0/metrics/Trial_247__Reeval_Halton_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0/metrics/Trial_247__Reeval_Halton_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -5908,7 +5908,7 @@
                   <c:v>362.74169921875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>353.2251892089844</c:v>
+                  <c:v>353.2251586914062</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>340.8739013671875</c:v>
@@ -5953,16 +5953,16 @@
                   <c:v>354.9904174804688</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>347.7590637207031</c:v>
+                  <c:v>347.759033203125</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>332.4536743164062</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>362.2424621582031</c:v>
+                  <c:v>362.242431640625</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>383.1897583007812</c:v>
+                  <c:v>383.1897277832031</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>367.5468444824219</c:v>
@@ -5983,7 +5983,7 @@
                   <c:v>353.9384765625</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>371.7198181152344</c:v>
+                  <c:v>371.7197875976562</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>354.0819091796875</c:v>
@@ -6052,13 +6052,13 @@
                   <c:v>364.4625549316406</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>357.5126647949219</c:v>
+                  <c:v>357.5126953125</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>347.4282531738281</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>354.9680786132812</c:v>
+                  <c:v>354.9681091308594</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>355.4009704589844</c:v>
@@ -6088,7 +6088,7 @@
                   <c:v>375.7027282714844</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>363.2515563964844</c:v>
+                  <c:v>363.2515869140625</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>354.1835632324219</c:v>
@@ -6130,7 +6130,7 @@
                   <c:v>346.285888671875</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>354.5963134765625</c:v>
+                  <c:v>354.5962829589844</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>343.0468139648438</c:v>
@@ -6151,7 +6151,7 @@
                   <c:v>348.6661987304688</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>358.2242431640625</c:v>
+                  <c:v>358.2242736816406</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>358.3081665039062</c:v>
@@ -6184,7 +6184,7 @@
                   <c:v>352.8302612304688</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>345.5041198730469</c:v>
+                  <c:v>345.5040893554688</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>339.130615234375</c:v>
@@ -6215,7 +6215,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6230,7 +6230,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6259,7 +6259,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6274,7 +6274,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6303,7 +6303,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6318,7 +6318,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6830,13 +6830,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H787"/>
+  <dimension ref="A1:S787"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6861,8 +6861,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>342.196</v>
       </c>
@@ -6887,8 +6893,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>355.506</v>
       </c>
@@ -6913,8 +6925,14 @@
       <c r="H3">
         <v>384</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="R3">
+        <v>384</v>
+      </c>
+      <c r="S3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>355.709</v>
       </c>
@@ -6934,13 +6952,19 @@
         <v>352.2228393554688</v>
       </c>
       <c r="G4">
+        <v>384</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>384</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>361.128</v>
       </c>
@@ -6965,8 +6989,14 @@
       <c r="H5">
         <v>384</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="R5">
+        <v>384</v>
+      </c>
+      <c r="S5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>355.345</v>
       </c>
@@ -6986,13 +7016,19 @@
         <v>362.74169921875</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>384</v>
       </c>
-      <c r="H6">
+      <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="S6">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>331.376</v>
       </c>
@@ -7009,7 +7045,7 @@
         <v>338.239</v>
       </c>
       <c r="F7">
-        <v>353.2251892089844</v>
+        <v>353.2251586914062</v>
       </c>
       <c r="G7">
         <v>384</v>
@@ -7017,8 +7053,14 @@
       <c r="H7">
         <v>384</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="R7">
+        <v>384</v>
+      </c>
+      <c r="S7">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>317.294</v>
       </c>
@@ -7038,7 +7080,7 @@
         <v>340.8739013671875</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>354.275</v>
       </c>
@@ -7058,7 +7100,7 @@
         <v>349.8005676269531</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>339.738</v>
       </c>
@@ -7078,7 +7120,7 @@
         <v>359.154541015625</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>355.403</v>
       </c>
@@ -7098,7 +7140,7 @@
         <v>355.2412414550781</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>357.053</v>
       </c>
@@ -7118,7 +7160,7 @@
         <v>355.3580932617188</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>351.338</v>
       </c>
@@ -7138,7 +7180,7 @@
         <v>349.7339782714844</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>355.857</v>
       </c>
@@ -7158,7 +7200,7 @@
         <v>326.4970703125</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>358.131</v>
       </c>
@@ -7178,7 +7220,7 @@
         <v>372.5118713378906</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>357.205</v>
       </c>
@@ -7315,7 +7357,7 @@
         <v>338.271</v>
       </c>
       <c r="F22">
-        <v>347.7590637207031</v>
+        <v>347.759033203125</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7355,7 +7397,7 @@
         <v>362.397</v>
       </c>
       <c r="F24">
-        <v>362.2424621582031</v>
+        <v>362.242431640625</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7375,7 +7417,7 @@
         <v>358.326</v>
       </c>
       <c r="F25">
-        <v>383.1897583007812</v>
+        <v>383.1897277832031</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7515,7 +7557,7 @@
         <v>362.857</v>
       </c>
       <c r="F32">
-        <v>371.7198181152344</v>
+        <v>371.7197875976562</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7975,7 +8017,7 @@
         <v>358.623</v>
       </c>
       <c r="F55">
-        <v>357.5126647949219</v>
+        <v>357.5126953125</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8015,7 +8057,7 @@
         <v>338.431</v>
       </c>
       <c r="F57">
-        <v>354.9680786132812</v>
+        <v>354.9681091308594</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8215,7 +8257,7 @@
         <v>362.156</v>
       </c>
       <c r="F67">
-        <v>363.2515563964844</v>
+        <v>363.2515869140625</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8495,7 +8537,7 @@
         <v>357.47</v>
       </c>
       <c r="F81">
-        <v>354.5963134765625</v>
+        <v>354.5962829589844</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8635,7 +8677,7 @@
         <v>361.939</v>
       </c>
       <c r="F88">
-        <v>358.2242431640625</v>
+        <v>358.2242736816406</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8855,7 +8897,7 @@
         <v>357.343</v>
       </c>
       <c r="F99">
-        <v>345.5041198730469</v>
+        <v>345.5040893554688</v>
       </c>
     </row>
     <row r="100" spans="1:6">
